--- a/biology/Médecine/Azote_13/Azote_13.xlsx
+++ b/biology/Médecine/Azote_13/Azote_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’azote 13, noté 13N, est l'isotope de l'azote dont le nombre de masse est égal à 13 : son noyau atomique compte 7 protons et 6 neutrons avec un spin 1/2- pour une masse atomique de 13,005 739 g/mol. Il est caractérisé par un excès de masse de 5 345 keV et une énergie de liaison nucléaire par nucléon de 7 238,9 keV[1]. Ce radioisotope est utilisé en tomographie par émission de positron (TEP/PET). Il a une demi-vie juste inférieure à 10 minutes (soit 9 min et 58,2 s) et doit donc être synthétisé sur site, par exemple en utilisant un cyclotron.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’azote 13, noté 13N, est l'isotope de l'azote dont le nombre de masse est égal à 13 : son noyau atomique compte 7 protons et 6 neutrons avec un spin 1/2- pour une masse atomique de 13,005 739 g/mol. Il est caractérisé par un excès de masse de 5 345 keV et une énergie de liaison nucléaire par nucléon de 7 238,9 keV. Ce radioisotope est utilisé en tomographie par émission de positron (TEP/PET). Il a une demi-vie juste inférieure à 10 minutes (soit 9 min et 58,2 s) et doit donc être synthétisé sur site, par exemple en utilisant un cyclotron.
 L'azote 13 est utilisé pour marquer les molécules d'ammoniac NH3 pour l'imagerie de perfusion myocardique.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La synthèse de l'azote 13 se fait par une réaction (p, α) à partir d'oxygène 16, principal isotope de l'oxygène :
 168O + 11H ⟶ 42He + 137N.
@@ -548,9 +562,11 @@
           <t>Rôle dans la fusion stellaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'azote 13 joue un rôle significatif dans le cycle CNO, source dominante d'énergie dans les étoiles plus massives que le Soleil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'azote 13 joue un rôle significatif dans le cycle CNO, source dominante d'énergie dans les étoiles plus massives que le Soleil.
 </t>
         </is>
       </c>
